--- a/Angulo_alpha.xlsx
+++ b/Angulo_alpha.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Posição</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Ângulo(º)</t>
+  </si>
+  <si>
+    <t>Tensao2</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$D$2</c:f>
+              <c:f>Folha1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -121,61 +124,61 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$C$3:$C$17</c:f>
+              <c:f>Folha1!$D$3:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.2440000000000002</c:v>
+                  <c:v>1.6254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0078999999999998</c:v>
+                  <c:v>1.4224000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7649999999999999</c:v>
+                  <c:v>1.2202999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5195000000000001</c:v>
+                  <c:v>1.0152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2797000000000001</c:v>
+                  <c:v>0.8095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0342</c:v>
+                  <c:v>0.60350000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7802</c:v>
+                  <c:v>0.39629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47570000000000001</c:v>
+                  <c:v>0.1222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17169999999999999</c:v>
+                  <c:v>-7.1099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-3</c:v>
+                  <c:v>-0.2636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2296</c:v>
+                  <c:v>-0.48159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.47570000000000001</c:v>
+                  <c:v>-0.69110000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.70709999999999995</c:v>
+                  <c:v>-0.89980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.94110000000000005</c:v>
+                  <c:v>-1.1053999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1540999999999999</c:v>
+                  <c:v>-1.3037000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$D$3:$D$17</c:f>
+              <c:f>Folha1!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -228,30 +231,30 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="117261056"/>
-        <c:axId val="117262592"/>
+        <c:axId val="93761920"/>
+        <c:axId val="93763456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117261056"/>
+        <c:axId val="93761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117262592"/>
+        <c:crossAx val="93763456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117262592"/>
+        <c:axId val="93763456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117261056"/>
+        <c:crossAx val="93761920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -264,7 +267,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -593,12 +596,12 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -606,10 +609,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3">
         <v>1</v>
       </c>
@@ -617,11 +623,14 @@
         <v>2.2440000000000002</v>
       </c>
       <c r="D3">
+        <v>1.6254999999999999</v>
+      </c>
+      <c r="E3">
         <f>180/PI()*TAN(((B3-8)*2.54/4)/44.5)</f>
         <v>-5.7422507856617688</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>2</v>
       </c>
@@ -629,11 +638,14 @@
         <v>2.0078999999999998</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="0">180/PI()*TAN(((B4-8)*2.54/4)/44.5)</f>
+        <v>1.4224000000000001</v>
+      </c>
+      <c r="E4">
+        <f>180/PI()*TAN(((B4-8)*2.54/4)/44.5)</f>
         <v>-4.9175706213771262</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>3</v>
       </c>
@@ -641,11 +653,14 @@
         <v>1.7649999999999999</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <v>1.2202999999999999</v>
+      </c>
+      <c r="E5">
+        <f>180/PI()*TAN(((B5-8)*2.54/4)/44.5)</f>
         <v>-4.0949081501749793</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>4</v>
       </c>
@@ -653,11 +668,14 @@
         <v>1.5195000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <v>1.0152000000000001</v>
+      </c>
+      <c r="E6">
+        <f>180/PI()*TAN(((B6-8)*2.54/4)/44.5)</f>
         <v>-3.273922063673508</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>5</v>
       </c>
@@ -665,11 +683,14 @@
         <v>1.2797000000000001</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <v>0.8095</v>
+      </c>
+      <c r="E7">
+        <f>180/PI()*TAN(((B7-8)*2.54/4)/44.5)</f>
         <v>-2.4542738064496818</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>6</v>
       </c>
@@ -677,11 +698,14 @@
         <v>1.0342</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="E8">
+        <f>180/PI()*TAN(((B8-8)*2.54/4)/44.5)</f>
         <v>-1.6356270140328006</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>7</v>
       </c>
@@ -689,11 +713,14 @@
         <v>0.7802</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="E9">
+        <f>180/PI()*TAN(((B9-8)*2.54/4)/44.5)</f>
         <v>-0.8176469585394599</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:5">
       <c r="B10">
         <v>8</v>
       </c>
@@ -701,11 +728,14 @@
         <v>0.47570000000000001</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <v>0.1222</v>
+      </c>
+      <c r="E10">
+        <f>180/PI()*TAN(((B10-8)*2.54/4)/44.5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>9</v>
       </c>
@@ -713,11 +743,14 @@
         <v>0.17169999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <v>-7.1099999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <f>180/PI()*TAN(((B11-8)*2.54/4)/44.5)</f>
         <v>0.8176469585394599</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>10</v>
       </c>
@@ -725,11 +758,14 @@
         <v>1E-3</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <v>-0.2636</v>
+      </c>
+      <c r="E12">
+        <f>180/PI()*TAN(((B12-8)*2.54/4)/44.5)</f>
         <v>1.6356270140328006</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:5">
       <c r="B13">
         <v>11</v>
       </c>
@@ -737,11 +773,14 @@
         <v>-0.2296</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <v>-0.48159999999999997</v>
+      </c>
+      <c r="E13">
+        <f>180/PI()*TAN(((B13-8)*2.54/4)/44.5)</f>
         <v>2.4542738064496818</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5">
       <c r="B14">
         <v>12</v>
       </c>
@@ -749,11 +788,14 @@
         <v>-0.47570000000000001</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <v>-0.69110000000000005</v>
+      </c>
+      <c r="E14">
+        <f>180/PI()*TAN(((B14-8)*2.54/4)/44.5)</f>
         <v>3.273922063673508</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5">
       <c r="B15">
         <v>13</v>
       </c>
@@ -761,11 +803,14 @@
         <v>-0.70709999999999995</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <v>-0.89980000000000004</v>
+      </c>
+      <c r="E15">
+        <f>180/PI()*TAN(((B15-8)*2.54/4)/44.5)</f>
         <v>4.0949081501749793</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5">
       <c r="B16">
         <v>14</v>
       </c>
@@ -773,7 +818,10 @@
         <v>-0.94110000000000005</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <v>-1.1053999999999999</v>
+      </c>
+      <c r="E16">
+        <f>180/PI()*TAN(((B16-8)*2.54/4)/44.5)</f>
         <v>4.9175706213771262</v>
       </c>
     </row>
@@ -784,8 +832,11 @@
       <c r="C17">
         <v>-1.1540999999999999</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="1">
+        <v>-1.3037000000000001</v>
+      </c>
+      <c r="E17">
+        <f>180/PI()*TAN(((B17-8)*2.54/4)/44.5)</f>
         <v>5.7422507856617688</v>
       </c>
     </row>
@@ -794,7 +845,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Angulo_alpha.xlsx
+++ b/Angulo_alpha.xlsx
@@ -71,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,30 +232,30 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93761920"/>
-        <c:axId val="93763456"/>
+        <c:axId val="115376896"/>
+        <c:axId val="115378432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93761920"/>
+        <c:axId val="115376896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93763456"/>
+        <c:crossAx val="115378432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93763456"/>
+        <c:axId val="115378432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93761920"/>
+        <c:crossAx val="115376896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -267,7 +268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -626,7 +627,7 @@
         <v>1.6254999999999999</v>
       </c>
       <c r="E3">
-        <f>180/PI()*TAN(((B3-8)*2.54/4)/44.5)</f>
+        <f t="shared" ref="E3:E17" si="0">180/PI()*TAN(((B3-8)*2.54/4)/44.5)</f>
         <v>-5.7422507856617688</v>
       </c>
     </row>
@@ -641,7 +642,7 @@
         <v>1.4224000000000001</v>
       </c>
       <c r="E4">
-        <f>180/PI()*TAN(((B4-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-4.9175706213771262</v>
       </c>
     </row>
@@ -656,7 +657,7 @@
         <v>1.2202999999999999</v>
       </c>
       <c r="E5">
-        <f>180/PI()*TAN(((B5-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-4.0949081501749793</v>
       </c>
     </row>
@@ -671,7 +672,7 @@
         <v>1.0152000000000001</v>
       </c>
       <c r="E6">
-        <f>180/PI()*TAN(((B6-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-3.273922063673508</v>
       </c>
     </row>
@@ -686,7 +687,7 @@
         <v>0.8095</v>
       </c>
       <c r="E7">
-        <f>180/PI()*TAN(((B7-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-2.4542738064496818</v>
       </c>
     </row>
@@ -701,7 +702,7 @@
         <v>0.60350000000000004</v>
       </c>
       <c r="E8">
-        <f>180/PI()*TAN(((B8-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-1.6356270140328006</v>
       </c>
     </row>
@@ -716,7 +717,7 @@
         <v>0.39629999999999999</v>
       </c>
       <c r="E9">
-        <f>180/PI()*TAN(((B9-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>-0.8176469585394599</v>
       </c>
     </row>
@@ -731,7 +732,7 @@
         <v>0.1222</v>
       </c>
       <c r="E10">
-        <f>180/PI()*TAN(((B10-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -746,7 +747,7 @@
         <v>-7.1099999999999997E-2</v>
       </c>
       <c r="E11">
-        <f>180/PI()*TAN(((B11-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>0.8176469585394599</v>
       </c>
     </row>
@@ -761,7 +762,7 @@
         <v>-0.2636</v>
       </c>
       <c r="E12">
-        <f>180/PI()*TAN(((B12-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>1.6356270140328006</v>
       </c>
     </row>
@@ -776,7 +777,7 @@
         <v>-0.48159999999999997</v>
       </c>
       <c r="E13">
-        <f>180/PI()*TAN(((B13-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>2.4542738064496818</v>
       </c>
     </row>
@@ -791,7 +792,7 @@
         <v>-0.69110000000000005</v>
       </c>
       <c r="E14">
-        <f>180/PI()*TAN(((B14-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>3.273922063673508</v>
       </c>
     </row>
@@ -806,7 +807,7 @@
         <v>-0.89980000000000004</v>
       </c>
       <c r="E15">
-        <f>180/PI()*TAN(((B15-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>4.0949081501749793</v>
       </c>
     </row>
@@ -821,7 +822,7 @@
         <v>-1.1053999999999999</v>
       </c>
       <c r="E16">
-        <f>180/PI()*TAN(((B16-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>4.9175706213771262</v>
       </c>
     </row>
@@ -832,11 +833,11 @@
       <c r="C17">
         <v>-1.1540999999999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>-1.3037000000000001</v>
       </c>
       <c r="E17">
-        <f>180/PI()*TAN(((B17-8)*2.54/4)/44.5)</f>
+        <f t="shared" si="0"/>
         <v>5.7422507856617688</v>
       </c>
     </row>
